--- a/biology/Botanique/Bourgogne_aligoté/Bourgogne_aligoté.xlsx
+++ b/biology/Botanique/Bourgogne_aligoté/Bourgogne_aligoté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bourgogne_aligot%C3%A9</t>
+          <t>Bourgogne_aligoté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bourgogne aligoté[2] est un vin blanc d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
+Le bourgogne aligoté est un vin blanc d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
 Il s'agit d'une AOC régionale, elle est donc commune à tout le vignoble de Bourgogne. Ce vin blanc est élaboré à partir du cépage aligoté, alors que l'essentiel de la production de bourgogne blanc est réalisé avec du chardonnay.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bourgogne_aligot%C3%A9</t>
+          <t>Bourgogne_aligoté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,19 +527,211 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-L'AOC bourgogne aligoté est produit uniquement en vin blanc avec le cépage aligoté. Il peut être produit dans les départements de l'Yonne, de la Côte d'Or, de Saône-et-Loire et du Rhône. Il couvre une superficie totale de 1 575 hectares[3]. Le volume de production est de 103 000 hectolitres[3].
-Vignoble de l'Yonne
-Dans l'Yonne, le vignoble produisant du bourgogne aligoté a une superficie de 302 hectares[3] et s'étend sur 54 communes[3]: Coulanges-la-Vineuse, Escolives-Sainte-Camille, Jussy, Migé, Mouffy, Saint-Bris-le-Vineux, Val-de-Mercy...
-Vignoble de la Côte-d'Or
-En Côte-d'Or, la superficie de vignoble en production est d'environ 650 hectares[3] sur 91 communes[3], dont Morey-Saint-Denis.
-Vignoble de Saône-et-Loire
-La superficie de production du bourgogne aligoté en Saône-et-Loire est de 740 hectares[3] sur 154 communes[3] parmi lesquelles Bouzeron et Chassey-le-Camp qui produisent l'appellation bouzeron de bonne réputation.
-Géologie
-Le cépage aligoté pousse sur des sols argilo-calcaires.
-Types de vins, gastronomie et températures de service
-Ce sont en général des vins au bouquet végétal, vif et frais. S'accorde bien par exemple avec une andouillette grillée, du poisson grillé, des huîtres, des salades Il se sert entre 9 et 11 degrés et se garde entre deux et trois ans.
-L'aligoté peut également être utilisé pour la production de crémant de Bourgogne. C'est l'un des composants du fromage « L'éclat de Nuits »[4].
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AOC bourgogne aligoté est produit uniquement en vin blanc avec le cépage aligoté. Il peut être produit dans les départements de l'Yonne, de la Côte d'Or, de Saône-et-Loire et du Rhône. Il couvre une superficie totale de 1 575 hectares. Le volume de production est de 103 000 hectolitres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bourgogne_aligoté</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_aligot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vignoble de l'Yonne</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Yonne, le vignoble produisant du bourgogne aligoté a une superficie de 302 hectares et s'étend sur 54 communes: Coulanges-la-Vineuse, Escolives-Sainte-Camille, Jussy, Migé, Mouffy, Saint-Bris-le-Vineux, Val-de-Mercy...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bourgogne_aligoté</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_aligot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Vignoble de la Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Côte-d'Or, la superficie de vignoble en production est d'environ 650 hectares sur 91 communes, dont Morey-Saint-Denis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bourgogne_aligoté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_aligot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Vignoble de Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La superficie de production du bourgogne aligoté en Saône-et-Loire est de 740 hectares sur 154 communes parmi lesquelles Bouzeron et Chassey-le-Camp qui produisent l'appellation bouzeron de bonne réputation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bourgogne_aligoté</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_aligot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage aligoté pousse sur des sols argilo-calcaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bourgogne_aligoté</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_aligot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Types de vins, gastronomie et températures de service</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont en général des vins au bouquet végétal, vif et frais. S'accorde bien par exemple avec une andouillette grillée, du poisson grillé, des huîtres, des salades Il se sert entre 9 et 11 degrés et se garde entre deux et trois ans.
+L'aligoté peut également être utilisé pour la production de crémant de Bourgogne. C'est l'un des composants du fromage « L'éclat de Nuits ».
 Il est la base de l'apéritif kir en association avec la crème de cassis.
 </t>
         </is>
